--- a/templates/alignment_template.xlsx
+++ b/templates/alignment_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gefei\Desktop\gesture-structure-pipeline\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gesture_project\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA23006-C626-4778-9FC4-3C245E4358B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301218F4-66C3-49D2-812E-0B5A28F559CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
   <si>
     <t>目的 / Purpose</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Code</t>
   </si>
   <si>
+    <t>CN definition</t>
+  </si>
+  <si>
     <t>EN definition</t>
   </si>
   <si>
@@ -118,469 +121,538 @@
     <t>threshold</t>
   </si>
   <si>
+    <t>PointID</t>
+  </si>
+  <si>
+    <t>time_s</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_end</t>
+  </si>
+  <si>
+    <t>teacher_ratio</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Transcript_cue</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Micro_codes</t>
+  </si>
+  <si>
+    <t>Confidence_1to3</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>t_struct_sec</t>
+  </si>
+  <si>
+    <t>Δt_sec</t>
+  </si>
+  <si>
+    <t>EventID (manual)</t>
+  </si>
+  <si>
+    <t>Event_peak_sec</t>
+  </si>
+  <si>
+    <t>|lag| (sec)</t>
+  </si>
+  <si>
+    <t>Event_start_sec</t>
+  </si>
+  <si>
+    <t>Event_end_sec</t>
+  </si>
+  <si>
+    <t>Event_max_speed</t>
+  </si>
+  <si>
+    <t>Event_duration_sec</t>
+  </si>
+  <si>
+    <t>Aligned_within_Δt?</t>
+  </si>
+  <si>
+    <t>Teacher_ratio_in_clip</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>KEEP/DROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>auto from R</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>Δt_seconds</t>
+  </si>
+  <si>
+    <t>CountsFlow</t>
+  </si>
+  <si>
+    <t>total_frames</t>
+  </si>
+  <si>
+    <t>auto from TeacherQC</t>
+  </si>
+  <si>
+    <t>teacher_present_frames</t>
+  </si>
+  <si>
+    <t>conf_ok_frames</t>
+  </si>
+  <si>
+    <t>shoulders_ok_frames</t>
+  </si>
+  <si>
+    <t>n_candidates</t>
+  </si>
+  <si>
+    <t>n_watch_final</t>
+  </si>
+  <si>
+    <t>n_events</t>
+  </si>
+  <si>
+    <t>auto from GestureEvents</t>
+  </si>
+  <si>
+    <t>events_per_min</t>
+  </si>
+  <si>
+    <t>auto from Summary</t>
+  </si>
+  <si>
+    <t>mean_amplitude</t>
+  </si>
+  <si>
+    <t>mean_duration</t>
+  </si>
+  <si>
+    <t>dt_seconds</t>
+  </si>
+  <si>
+    <t>narrow window (stricter alignment)</t>
+  </si>
+  <si>
+    <t>medium window</t>
+  </si>
+  <si>
+    <t>default / wider window</t>
+  </si>
+  <si>
+    <t>Macro_ID</t>
+  </si>
+  <si>
+    <t>Macro Code</t>
+  </si>
+  <si>
+    <t>Micro Code</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>sd_amplitude</t>
+  </si>
+  <si>
+    <t>sd_duration</t>
+  </si>
+  <si>
+    <t>win_id</t>
+  </si>
+  <si>
+    <t>t_start</t>
+  </si>
+  <si>
+    <t>t_end</t>
+  </si>
+  <si>
+    <t>n_frames</t>
+  </si>
+  <si>
+    <t>na_rate</t>
+  </si>
+  <si>
+    <t>teacher_off_rate</t>
+  </si>
+  <si>
+    <t>above_thr_rate</t>
+  </si>
+  <si>
+    <t>max_run_above</t>
+  </si>
+  <si>
+    <t>missing_reason</t>
+  </si>
+  <si>
+    <t>has_event</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>t_sec</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>conf_det</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>ls_x</t>
+  </si>
+  <si>
+    <t>ls_y</t>
+  </si>
+  <si>
+    <t>ls_z</t>
+  </si>
+  <si>
+    <t>ls_vis</t>
+  </si>
+  <si>
+    <t>rs_x</t>
+  </si>
+  <si>
+    <t>rs_y</t>
+  </si>
+  <si>
+    <t>rs_z</t>
+  </si>
+  <si>
+    <t>rs_vis</t>
+  </si>
+  <si>
+    <t>le_x</t>
+  </si>
+  <si>
+    <t>le_y</t>
+  </si>
+  <si>
+    <t>le_z</t>
+  </si>
+  <si>
+    <t>le_vis</t>
+  </si>
+  <si>
+    <t>re_x</t>
+  </si>
+  <si>
+    <t>re_y</t>
+  </si>
+  <si>
+    <t>re_z</t>
+  </si>
+  <si>
+    <t>re_vis</t>
+  </si>
+  <si>
+    <t>lw_x</t>
+  </si>
+  <si>
+    <t>lw_y</t>
+  </si>
+  <si>
+    <t>lw_z</t>
+  </si>
+  <si>
+    <t>lw_vis</t>
+  </si>
+  <si>
+    <t>rw_x</t>
+  </si>
+  <si>
+    <t>rw_y</t>
+  </si>
+  <si>
+    <t>rw_z</t>
+  </si>
+  <si>
+    <t>rw_vis</t>
+  </si>
+  <si>
+    <t>MACRO</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>新概念/新步骤引入</t>
+  </si>
+  <si>
+    <t>New concept/new step begins a unit.</t>
+  </si>
+  <si>
+    <t>often structural</t>
+  </si>
+  <si>
+    <t>ELAB</t>
+  </si>
+  <si>
+    <t>解释展开（例子/拆解/类比）</t>
+  </si>
+  <si>
+    <t>Elaboration within unit.</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>TRANS</t>
+  </si>
+  <si>
+    <t>转场/换步骤/换表示</t>
+  </si>
+  <si>
+    <t>Transition/boundary marker.</t>
+  </si>
+  <si>
+    <t>EMPH</t>
+  </si>
+  <si>
+    <t>强调/标重点/提醒易错</t>
+  </si>
+  <si>
+    <t>Emphasis/highlight/pitfall notice.</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>收束/小结/回顾</t>
+  </si>
+  <si>
+    <t>Closure/summary/recap.</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>定义/命名/符号引入</t>
+  </si>
+  <si>
+    <t>Definition/naming/symbol intro.</t>
+  </si>
+  <si>
+    <t>context-dependent</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>举例/实例</t>
+  </si>
+  <si>
+    <t>Example/instance.</t>
+  </si>
+  <si>
+    <t>usually elaboration</t>
+  </si>
+  <si>
+    <t>CONTR</t>
+  </si>
+  <si>
+    <t>对比/区分/纠错</t>
+  </si>
+  <si>
+    <t>Contrast/distinction/correction.</t>
+  </si>
+  <si>
+    <t>can be structural</t>
+  </si>
+  <si>
+    <t>WARN</t>
+  </si>
+  <si>
+    <t>易错警示/注意事项</t>
+  </si>
+  <si>
+    <t>Warning/pitfall notice.</t>
+  </si>
+  <si>
+    <t>often KEEP if emphatic</t>
+  </si>
+  <si>
+    <t>CHK</t>
+  </si>
+  <si>
+    <t>检查理解/提问</t>
+  </si>
+  <si>
+    <t>Checking understanding/questioning.</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>元话语（接下来/现在）</t>
+  </si>
+  <si>
+    <t>Meta-discourse (next/now).</t>
+  </si>
+  <si>
+    <t>evidence for TRANS/CLOSE</t>
+  </si>
+  <si>
+    <t>KEEP</t>
+  </si>
+  <si>
+    <t>Layer1</t>
+  </si>
+  <si>
+    <t>结构必要：删掉会断裂/跳跃</t>
+  </si>
+  <si>
+    <t>Discourse necessity: removing breaks coherence.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Layer2</t>
+  </si>
+  <si>
+    <t>时间对齐：落在±Δt内</t>
+  </si>
+  <si>
+    <t>Temporal alignment within ±Δt.</t>
+  </si>
+  <si>
+    <t>Layer3</t>
+  </si>
+  <si>
+    <t>显著性：高于局部基线/top quantile</t>
+  </si>
+  <si>
+    <t>Salience above local baseline/top quantile.</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>New concept or new step begins a unit.</t>
+  </si>
+  <si>
+    <t>Transition / boundary marker.</t>
+  </si>
+  <si>
+    <t>Emphasis / highlight / pitfall notice.</t>
+  </si>
+  <si>
+    <t>Closure / summary / recap.</t>
+  </si>
+  <si>
+    <t>Definition / naming / symbol introduction.</t>
+  </si>
+  <si>
+    <t>often used with NC</t>
+  </si>
+  <si>
+    <t>Example / instance.</t>
+  </si>
+  <si>
+    <t>Contrast / distinction / correction.</t>
+  </si>
+  <si>
+    <t>can mark TRANS</t>
+  </si>
+  <si>
+    <t>Warning / pitfall notice.</t>
+  </si>
+  <si>
+    <t>KEEP if emphatic</t>
+  </si>
+  <si>
+    <t>Checking understanding / questioning.</t>
+  </si>
+  <si>
+    <t>supports TRANS/CLOSE</t>
+  </si>
+  <si>
+    <t>结构必要：删除会断裂/跳跃</t>
+  </si>
+  <si>
+    <t>m01</t>
+  </si>
+  <si>
+    <t>video tag</t>
+  </si>
+  <si>
+    <t>frames per second</t>
+  </si>
+  <si>
+    <t>alignment half-window (try 0.5 / 1.0 / 1.5 for robustness)</t>
+  </si>
+  <si>
+    <t>Micro_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak_sec</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>peak_sec_proxy</t>
-  </si>
-  <si>
-    <t>PointID</t>
-  </si>
-  <si>
-    <t>time_s</t>
-  </si>
-  <si>
-    <t>time_start</t>
-  </si>
-  <si>
-    <t>time_end</t>
-  </si>
-  <si>
-    <t>teacher_ratio</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>Transcript_cue</t>
-  </si>
-  <si>
-    <t>Macro</t>
-  </si>
-  <si>
-    <t>Micro_codes</t>
-  </si>
-  <si>
-    <t>Confidence_1to3</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>t_struct_sec</t>
-  </si>
-  <si>
-    <t>Δt_sec</t>
-  </si>
-  <si>
-    <t>EventID (manual)</t>
-  </si>
-  <si>
-    <t>Event_peak_sec</t>
-  </si>
-  <si>
-    <t>|lag| (sec)</t>
-  </si>
-  <si>
-    <t>Event_start_sec</t>
-  </si>
-  <si>
-    <t>Event_end_sec</t>
-  </si>
-  <si>
-    <t>Event_max_speed</t>
-  </si>
-  <si>
-    <t>Event_duration_sec</t>
-  </si>
-  <si>
-    <t>Aligned_within_Δt?</t>
-  </si>
-  <si>
-    <t>Teacher_ratio_in_clip</t>
-  </si>
-  <si>
-    <t>Confidence</t>
-  </si>
-  <si>
-    <t>KEEP/DROP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason </t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>auto from R</t>
-  </si>
-  <si>
-    <t>fps</t>
-  </si>
-  <si>
-    <t>Δt_seconds</t>
-  </si>
-  <si>
-    <t>CountsFlow</t>
-  </si>
-  <si>
-    <t>total_frames</t>
-  </si>
-  <si>
-    <t>auto from TeacherQC</t>
-  </si>
-  <si>
-    <t>teacher_present_frames</t>
-  </si>
-  <si>
-    <t>conf_ok_frames</t>
-  </si>
-  <si>
-    <t>shoulders_ok_frames</t>
-  </si>
-  <si>
-    <t>n_candidates</t>
-  </si>
-  <si>
-    <t>n_watch_final</t>
-  </si>
-  <si>
-    <t>n_events</t>
-  </si>
-  <si>
-    <t>auto from GestureEvents</t>
-  </si>
-  <si>
-    <t>events_per_min</t>
-  </si>
-  <si>
-    <t>auto from Summary</t>
-  </si>
-  <si>
-    <t>mean_amplitude</t>
-  </si>
-  <si>
-    <t>mean_duration</t>
-  </si>
-  <si>
-    <t>dt_seconds</t>
-  </si>
-  <si>
-    <t>narrow window (stricter alignment)</t>
-  </si>
-  <si>
-    <t>medium window</t>
-  </si>
-  <si>
-    <t>default / wider window</t>
-  </si>
-  <si>
-    <t>Macro_ID</t>
-  </si>
-  <si>
-    <t>Macro Code</t>
-  </si>
-  <si>
-    <t>Micro Code</t>
-  </si>
-  <si>
-    <t>Layer</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>sd_amplitude</t>
-  </si>
-  <si>
-    <t>sd_duration</t>
-  </si>
-  <si>
-    <t>win_id</t>
-  </si>
-  <si>
-    <t>t_start</t>
-  </si>
-  <si>
-    <t>t_end</t>
-  </si>
-  <si>
-    <t>n_frames</t>
-  </si>
-  <si>
-    <t>na_rate</t>
-  </si>
-  <si>
-    <t>teacher_off_rate</t>
-  </si>
-  <si>
-    <t>above_thr_rate</t>
-  </si>
-  <si>
-    <t>max_run_above</t>
-  </si>
-  <si>
-    <t>missing_reason</t>
-  </si>
-  <si>
-    <t>has_event</t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>t_sec</t>
-  </si>
-  <si>
-    <t>teacher_id</t>
-  </si>
-  <si>
-    <t>conf_det</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>ls_x</t>
-  </si>
-  <si>
-    <t>ls_y</t>
-  </si>
-  <si>
-    <t>ls_z</t>
-  </si>
-  <si>
-    <t>ls_vis</t>
-  </si>
-  <si>
-    <t>rs_x</t>
-  </si>
-  <si>
-    <t>rs_y</t>
-  </si>
-  <si>
-    <t>rs_z</t>
-  </si>
-  <si>
-    <t>rs_vis</t>
-  </si>
-  <si>
-    <t>le_x</t>
-  </si>
-  <si>
-    <t>le_y</t>
-  </si>
-  <si>
-    <t>le_z</t>
-  </si>
-  <si>
-    <t>le_vis</t>
-  </si>
-  <si>
-    <t>re_x</t>
-  </si>
-  <si>
-    <t>re_y</t>
-  </si>
-  <si>
-    <t>re_z</t>
-  </si>
-  <si>
-    <t>re_vis</t>
-  </si>
-  <si>
-    <t>lw_x</t>
-  </si>
-  <si>
-    <t>lw_y</t>
-  </si>
-  <si>
-    <t>lw_z</t>
-  </si>
-  <si>
-    <t>lw_vis</t>
-  </si>
-  <si>
-    <t>rw_x</t>
-  </si>
-  <si>
-    <t>rw_y</t>
-  </si>
-  <si>
-    <t>rw_z</t>
-  </si>
-  <si>
-    <t>rw_vis</t>
-  </si>
-  <si>
-    <t>MACRO</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>New concept/new step begins a unit.</t>
-  </si>
-  <si>
-    <t>often structural</t>
-  </si>
-  <si>
-    <t>ELAB</t>
-  </si>
-  <si>
-    <t>Elaboration within unit.</t>
-  </si>
-  <si>
-    <t>sometimes</t>
-  </si>
-  <si>
-    <t>TRANS</t>
-  </si>
-  <si>
-    <t>Transition/boundary marker.</t>
-  </si>
-  <si>
-    <t>EMPH</t>
-  </si>
-  <si>
-    <t>Emphasis/highlight/pitfall notice.</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>Closure/summary/recap.</t>
-  </si>
-  <si>
-    <t>MICRO</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>Definition/naming/symbol intro.</t>
-  </si>
-  <si>
-    <t>context-dependent</t>
-  </si>
-  <si>
-    <t>EX</t>
-  </si>
-  <si>
-    <t>Example/instance.</t>
-  </si>
-  <si>
-    <t>usually elaboration</t>
-  </si>
-  <si>
-    <t>CONTR</t>
-  </si>
-  <si>
-    <t>Contrast/distinction/correction.</t>
-  </si>
-  <si>
-    <t>can be structural</t>
-  </si>
-  <si>
-    <t>WARN</t>
-  </si>
-  <si>
-    <t>Warning/pitfall notice.</t>
-  </si>
-  <si>
-    <t>often KEEP if emphatic</t>
-  </si>
-  <si>
-    <t>CHK</t>
-  </si>
-  <si>
-    <t>Checking understanding/questioning.</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>Meta-discourse (next/now).</t>
-  </si>
-  <si>
-    <t>evidence for TRANS/CLOSE</t>
-  </si>
-  <si>
-    <t>KEEP</t>
-  </si>
-  <si>
-    <t>Layer1</t>
-  </si>
-  <si>
-    <t>Discourse necessity: removing breaks coherence.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Layer2</t>
-  </si>
-  <si>
-    <t>Temporal alignment within ±Δt.</t>
-  </si>
-  <si>
-    <t>Layer3</t>
-  </si>
-  <si>
-    <t>Salience above local baseline/top quantile.</t>
-  </si>
-  <si>
-    <t>recommended</t>
-  </si>
-  <si>
-    <t>New concept or new step begins a unit.</t>
-  </si>
-  <si>
-    <t>Transition / boundary marker.</t>
-  </si>
-  <si>
-    <t>Emphasis / highlight / pitfall notice.</t>
-  </si>
-  <si>
-    <t>Closure / summary / recap.</t>
-  </si>
-  <si>
-    <t>Definition / naming / symbol introduction.</t>
-  </si>
-  <si>
-    <t>often used with NC</t>
-  </si>
-  <si>
-    <t>Example / instance.</t>
-  </si>
-  <si>
-    <t>Contrast / distinction / correction.</t>
-  </si>
-  <si>
-    <t>can mark TRANS</t>
-  </si>
-  <si>
-    <t>Warning / pitfall notice.</t>
-  </si>
-  <si>
-    <t>KEEP if emphatic</t>
-  </si>
-  <si>
-    <t>Checking understanding / questioning.</t>
-  </si>
-  <si>
-    <t>supports TRANS/CLOSE</t>
-  </si>
-  <si>
-    <t>video tag</t>
-  </si>
-  <si>
-    <t>frames per second</t>
-  </si>
-  <si>
-    <t>alignment half-window (try 0.5 / 1.0 / 1.5 for robustness)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak_frame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -657,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -689,12 +761,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -731,6 +814,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,94 +1072,137 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>137</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="7">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="7">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1084,19 +1213,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="43.06640625" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.796875" customWidth="1"/>
+    <col min="3" max="3" width="43.06640625" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>77</v>
       </c>
@@ -1104,40 +1234,52 @@
         <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1311,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>64</v>
@@ -1231,10 +1373,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>82</v>
@@ -9959,7 +10101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -10080,7 +10222,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10105,9 +10247,11 @@
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -10118,16 +10262,18 @@
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>1.5</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -10138,20 +10284,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -10164,8 +10310,11 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
@@ -10178,187 +10327,229 @@
       <c r="D2" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -10369,10 +10560,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10387,48 +10578,54 @@
     <col min="13" max="13" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -10443,7 +10640,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -10458,7 +10655,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -10473,7 +10670,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -10488,7 +10685,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -10503,7 +10700,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -10518,7 +10715,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -10533,7 +10730,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10548,7 +10745,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10563,7 +10760,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10578,7 +10775,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10593,7 +10790,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10608,7 +10805,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10623,7 +10820,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10638,7 +10835,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -11515,7 +11712,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="str">
@@ -11567,7 +11764,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="str">
@@ -11619,7 +11816,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="str">
@@ -11671,7 +11868,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="str">
@@ -11723,7 +11920,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="str">
@@ -11775,7 +11972,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="str">
@@ -11827,7 +12024,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="str">
@@ -11879,7 +12076,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="str">
@@ -11931,7 +12128,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="str">
@@ -11983,7 +12180,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="str">
@@ -12035,7 +12232,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="str">
@@ -12087,7 +12284,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="str">
@@ -12139,7 +12336,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="str">
@@ -12191,7 +12388,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="str">
@@ -12243,7 +12440,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="str">
@@ -12295,7 +12492,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="str">
@@ -12347,7 +12544,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="str">
@@ -12399,7 +12596,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="str">
@@ -12451,7 +12648,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="str">
@@ -12503,7 +12700,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3">
         <f>Inputs!$B$4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="str">
@@ -12745,7 +12942,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>64</v>
@@ -12816,20 +13013,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.1328125" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" customWidth="1"/>
+    <col min="3" max="3" width="26.86328125" customWidth="1"/>
+    <col min="4" max="4" width="34.1328125" customWidth="1"/>
+    <col min="5" max="5" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
@@ -12842,75 +13040,93 @@
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
         <v>127</v>
       </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>180</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/templates/alignment_template.xlsx
+++ b/templates/alignment_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gesture_project\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301218F4-66C3-49D2-812E-0B5A28F559CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE00FE3-8941-4AA8-81DD-FA876ABD103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="189">
   <si>
     <t>目的 / Purpose</t>
   </si>
@@ -83,36 +83,6 @@
   </si>
   <si>
     <t>KEEP relevance</t>
-  </si>
-  <si>
-    <t>EventID</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>start_frame</t>
-  </si>
-  <si>
-    <t>end_frame</t>
-  </si>
-  <si>
-    <t>duration_frames</t>
-  </si>
-  <si>
-    <t>start_sec</t>
-  </si>
-  <si>
-    <t>end_sec</t>
-  </si>
-  <si>
-    <t>duration_sec</t>
-  </si>
-  <si>
-    <t>mean_speed</t>
-  </si>
-  <si>
-    <t>max_speed</t>
   </si>
   <si>
     <t>q</t>
@@ -635,23 +605,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>q</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>threshold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>peak_sec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>peak_sec_proxy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>peak_frame</t>
+    <t>frame_w</t>
+  </si>
+  <si>
+    <t>frame_h</t>
+  </si>
+  <si>
+    <t>frame</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -759,17 +719,6 @@
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -816,8 +765,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,10 +1037,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -1100,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1108,16 +1057,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1125,16 +1074,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1142,16 +1091,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1159,16 +1108,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1176,16 +1125,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1193,16 +1142,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1177,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -1237,49 +1186,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1308,28 +1257,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1367,43 +1316,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -10099,10 +10048,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10113,102 +10062,114 @@
     <col min="5" max="16384" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -10245,35 +10206,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3">
         <v>1.5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -10316,240 +10277,240 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -10560,10 +10521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10578,54 +10539,117 @@
     <col min="13" max="13" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>199</v>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -10640,7 +10664,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -10655,7 +10679,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -10670,7 +10694,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -10685,7 +10709,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -10700,7 +10724,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -10715,7 +10739,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -10730,7 +10754,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10745,7 +10769,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10760,7 +10784,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10775,7 +10799,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10790,7 +10814,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10805,7 +10829,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10820,7 +10844,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10835,7 +10859,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -11329,37 +11353,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -11656,55 +11680,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -12775,7 +12799,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>6</v>
@@ -12786,134 +12810,134 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -12939,25 +12963,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>7</v>
@@ -12974,7 +12998,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -12988,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -13002,7 +13026,7 @@
         <v>1.5</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -13029,10 +13053,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -13049,16 +13073,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -13066,16 +13090,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -13083,16 +13107,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -13100,16 +13124,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -13117,16 +13141,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
